--- a/test-cases part 1.xlsx
+++ b/test-cases part 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>years = 1; paymenthMethod =  'Visa'; returnedOrder = 'true'</t>
   </si>
   <si>
@@ -92,6 +89,12 @@
   </si>
   <si>
     <t>Discount when customer first buy was &gt;= 1 year ago, payment  method NOT Mastercard and maybe he/she have a BD today. Customer hasn't returned this good yet</t>
+  </si>
+  <si>
+    <t>run function with a preconditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Severity</t>
   </si>
 </sst>
 </file>
@@ -512,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +526,7 @@
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
@@ -551,19 +554,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -592,16 +597,18 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -630,19 +637,21 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -668,19 +677,21 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -706,16 +717,18 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -744,16 +757,18 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -782,16 +797,18 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -820,16 +837,18 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
